--- a/lowe/edd/data/RIVE$HWS.xlsx
+++ b/lowe/edd/data/RIVE$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1754,14 +1754,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH114"/>
+  <dimension ref="A1:JI114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1771,12 +1771,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1804,12 +1804,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2624,11 +2624,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3429,10 +3432,13 @@
         <v>2108900</v>
       </c>
       <c r="JH9" s="11">
-        <v>2090800</v>
+        <v>2090700</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>2093600</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4233,10 +4239,13 @@
         <v>1942100</v>
       </c>
       <c r="JH10" s="11">
-        <v>1931500</v>
+        <v>1931100</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>1955500</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -5037,10 +5046,13 @@
         <v>166800</v>
       </c>
       <c r="JH11" s="11">
-        <v>159300</v>
+        <v>159600</v>
+      </c>
+      <c r="JI11" s="11">
+        <v>138100</v>
       </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5843,8 +5855,11 @@
       <c r="JH12" s="12">
         <v>7.5999999999999998E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>6.6000000000000003E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6645,10 +6660,13 @@
         <v>1533800</v>
       </c>
       <c r="JH13" s="11">
-        <v>1535600</v>
+        <v>1535200</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>1543700</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7451,8 +7469,11 @@
       <c r="JH14" s="11">
         <v>10800</v>
       </c>
+      <c r="JI14" s="11">
+        <v>11700</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8253,10 +8274,13 @@
         <v>1519300</v>
       </c>
       <c r="JH15" s="11">
-        <v>1524800</v>
+        <v>1524400</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>1532000</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -9057,10 +9081,13 @@
         <v>1291600</v>
       </c>
       <c r="JH16" s="11">
-        <v>1292800</v>
+        <v>1292600</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>1297800</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9861,10 +9888,13 @@
         <v>201500</v>
       </c>
       <c r="JH17" s="11">
-        <v>200500</v>
+        <v>200400</v>
+      </c>
+      <c r="JI17" s="11">
+        <v>200900</v>
       </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10665,10 +10695,13 @@
         <v>110300</v>
       </c>
       <c r="JH18" s="11">
+        <v>109300</v>
+      </c>
+      <c r="JI18" s="11">
         <v>109100</v>
       </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11471,8 +11504,11 @@
       <c r="JH19" s="11">
         <v>1300</v>
       </c>
+      <c r="JI19" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12273,10 +12309,13 @@
         <v>109000</v>
       </c>
       <c r="JH20" s="11">
+        <v>108000</v>
+      </c>
+      <c r="JI20" s="11">
         <v>107800</v>
       </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -13079,8 +13118,11 @@
       <c r="JH21" s="11">
         <v>16200</v>
       </c>
+      <c r="JI21" s="11">
+        <v>16600</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13881,10 +13923,13 @@
         <v>12300</v>
       </c>
       <c r="JH22" s="11">
-        <v>12000</v>
+        <v>12100</v>
+      </c>
+      <c r="JI22" s="11">
+        <v>12300</v>
       </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14685,10 +14730,13 @@
         <v>80200</v>
       </c>
       <c r="JH23" s="11">
-        <v>79600</v>
+        <v>79700</v>
+      </c>
+      <c r="JI23" s="11">
+        <v>78900</v>
       </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15489,10 +15537,13 @@
         <v>23300</v>
       </c>
       <c r="JH24" s="11">
-        <v>23800</v>
+        <v>23700</v>
+      </c>
+      <c r="JI24" s="11">
+        <v>23100</v>
       </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -16293,10 +16344,13 @@
         <v>30500</v>
       </c>
       <c r="JH25" s="11">
-        <v>30000</v>
+        <v>30100</v>
+      </c>
+      <c r="JI25" s="11">
+        <v>30300</v>
       </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -17097,10 +17151,13 @@
         <v>18400</v>
       </c>
       <c r="JH26" s="11">
-        <v>18300</v>
+        <v>18200</v>
+      </c>
+      <c r="JI26" s="11">
+        <v>17800</v>
       </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -17901,10 +17958,13 @@
         <v>91200</v>
       </c>
       <c r="JH27" s="11">
-        <v>91400</v>
+        <v>91100</v>
+      </c>
+      <c r="JI27" s="11">
+        <v>91800</v>
       </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -18705,10 +18765,13 @@
         <v>58400</v>
       </c>
       <c r="JH28" s="11">
-        <v>59000</v>
+        <v>58600</v>
+      </c>
+      <c r="JI28" s="11">
+        <v>58300</v>
       </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -19509,10 +19572,13 @@
         <v>14000</v>
       </c>
       <c r="JH29" s="11">
+        <v>13800</v>
+      </c>
+      <c r="JI29" s="11">
         <v>13900</v>
       </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -20313,10 +20379,13 @@
         <v>32800</v>
       </c>
       <c r="JH30" s="11">
-        <v>32400</v>
+        <v>32500</v>
+      </c>
+      <c r="JI30" s="11">
+        <v>33500</v>
       </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>32</v>
       </c>
@@ -21117,10 +21186,13 @@
         <v>1317800</v>
       </c>
       <c r="JH31" s="11">
-        <v>1324300</v>
+        <v>1324000</v>
+      </c>
+      <c r="JI31" s="11">
+        <v>1331100</v>
       </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>33</v>
       </c>
@@ -21921,10 +21993,13 @@
         <v>1090100</v>
       </c>
       <c r="JH32" s="11">
-        <v>1092300</v>
+        <v>1092200</v>
+      </c>
+      <c r="JI32" s="11">
+        <v>1096900</v>
       </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>34</v>
       </c>
@@ -22725,10 +22800,13 @@
         <v>430800</v>
       </c>
       <c r="JH33" s="11">
-        <v>432300</v>
+        <v>430900</v>
+      </c>
+      <c r="JI33" s="11">
+        <v>436100</v>
       </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>35</v>
       </c>
@@ -23529,10 +23607,13 @@
         <v>66200</v>
       </c>
       <c r="JH34" s="11">
-        <v>66600</v>
+        <v>65100</v>
+      </c>
+      <c r="JI34" s="11">
+        <v>64500</v>
       </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -24333,10 +24414,13 @@
         <v>37800</v>
       </c>
       <c r="JH35" s="11">
-        <v>37900</v>
+        <v>36400</v>
+      </c>
+      <c r="JI35" s="11">
+        <v>35700</v>
       </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>37</v>
       </c>
@@ -25137,10 +25221,13 @@
         <v>24800</v>
       </c>
       <c r="JH36" s="11">
-        <v>25200</v>
+        <v>25100</v>
+      </c>
+      <c r="JI36" s="11">
+        <v>25300</v>
       </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>40</v>
       </c>
@@ -25941,10 +26028,13 @@
         <v>175400</v>
       </c>
       <c r="JH37" s="11">
-        <v>175000</v>
+        <v>174900</v>
+      </c>
+      <c r="JI37" s="11">
+        <v>175500</v>
       </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>41</v>
       </c>
@@ -26745,10 +26835,13 @@
         <v>25300</v>
       </c>
       <c r="JH38" s="11">
-        <v>25700</v>
+        <v>25600</v>
+      </c>
+      <c r="JI38" s="11">
+        <v>25100</v>
       </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>44</v>
       </c>
@@ -27549,10 +27642,13 @@
         <v>7900</v>
       </c>
       <c r="JH39" s="11">
+        <v>8000</v>
+      </c>
+      <c r="JI39" s="11">
         <v>7900</v>
       </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>46</v>
       </c>
@@ -28353,10 +28449,13 @@
         <v>16600</v>
       </c>
       <c r="JH40" s="11">
+        <v>16300</v>
+      </c>
+      <c r="JI40" s="11">
         <v>16200</v>
       </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>49</v>
       </c>
@@ -29157,10 +29256,13 @@
         <v>34900</v>
       </c>
       <c r="JH41" s="11">
-        <v>34800</v>
+        <v>35100</v>
+      </c>
+      <c r="JI41" s="11">
+        <v>35600</v>
       </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>50</v>
       </c>
@@ -29963,8 +30065,11 @@
       <c r="JH42" s="11">
         <v>11200</v>
       </c>
+      <c r="JI42" s="11">
+        <v>11300</v>
+      </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>51</v>
       </c>
@@ -30765,10 +30870,13 @@
         <v>17900</v>
       </c>
       <c r="JH43" s="11">
+        <v>17800</v>
+      </c>
+      <c r="JI43" s="11">
         <v>17700</v>
       </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>52</v>
       </c>
@@ -31571,8 +31679,11 @@
       <c r="JH44" s="11">
         <v>13900</v>
       </c>
+      <c r="JI44" s="11">
+        <v>13700</v>
+      </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>54</v>
       </c>
@@ -32375,8 +32486,11 @@
       <c r="JH45" s="11">
         <v>35800</v>
       </c>
+      <c r="JI45" s="11">
+        <v>36700</v>
+      </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>58</v>
       </c>
@@ -33177,10 +33291,13 @@
         <v>189200</v>
       </c>
       <c r="JH46" s="11">
-        <v>190700</v>
+        <v>190900</v>
+      </c>
+      <c r="JI46" s="11">
+        <v>196100</v>
       </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>59</v>
       </c>
@@ -33981,10 +34098,13 @@
         <v>5300</v>
       </c>
       <c r="JH47" s="11">
-        <v>5200</v>
+        <v>5300</v>
+      </c>
+      <c r="JI47" s="11">
+        <v>5300</v>
       </c>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>60</v>
       </c>
@@ -34785,10 +34905,13 @@
         <v>183900</v>
       </c>
       <c r="JH48" s="11">
-        <v>185500</v>
+        <v>185600</v>
+      </c>
+      <c r="JI48" s="11">
+        <v>190800</v>
       </c>
     </row>
-    <row r="49" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>62</v>
       </c>
@@ -35591,8 +35714,11 @@
       <c r="JH49" s="11">
         <v>33800</v>
       </c>
+      <c r="JI49" s="11">
+        <v>33900</v>
+      </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>63</v>
       </c>
@@ -36395,8 +36521,11 @@
       <c r="JH50" s="11">
         <v>24700</v>
       </c>
+      <c r="JI50" s="11">
+        <v>24800</v>
+      </c>
     </row>
-    <row r="51" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>66</v>
       </c>
@@ -37199,8 +37328,11 @@
       <c r="JH51" s="11">
         <v>22000</v>
       </c>
+      <c r="JI51" s="11">
+        <v>22100</v>
+      </c>
     </row>
-    <row r="52" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>67</v>
       </c>
@@ -38001,10 +38133,13 @@
         <v>114300</v>
       </c>
       <c r="JH52" s="11">
-        <v>115100</v>
+        <v>115300</v>
+      </c>
+      <c r="JI52" s="11">
+        <v>118300</v>
       </c>
     </row>
-    <row r="53" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>68</v>
       </c>
@@ -38805,10 +38940,13 @@
         <v>9200</v>
       </c>
       <c r="JH53" s="11">
-        <v>9000</v>
+        <v>9100</v>
+      </c>
+      <c r="JI53" s="11">
+        <v>9100</v>
       </c>
     </row>
-    <row r="54" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>69</v>
       </c>
@@ -39611,8 +39749,11 @@
       <c r="JH54" s="11">
         <v>1700</v>
       </c>
+      <c r="JI54" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="55" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>70</v>
       </c>
@@ -40413,10 +40554,13 @@
         <v>4700</v>
       </c>
       <c r="JH55" s="11">
+        <v>4700</v>
+      </c>
+      <c r="JI55" s="11">
         <v>4600</v>
       </c>
     </row>
-    <row r="56" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>72</v>
       </c>
@@ -41217,10 +41361,13 @@
         <v>42200</v>
       </c>
       <c r="JH56" s="11">
-        <v>42400</v>
+        <v>42500</v>
+      </c>
+      <c r="JI56" s="11">
+        <v>42100</v>
       </c>
     </row>
-    <row r="57" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>73</v>
       </c>
@@ -42021,10 +42168,13 @@
         <v>23100</v>
       </c>
       <c r="JH57" s="11">
-        <v>23700</v>
+        <v>23300</v>
+      </c>
+      <c r="JI57" s="11">
+        <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>74</v>
       </c>
@@ -42825,10 +42975,13 @@
         <v>12300</v>
       </c>
       <c r="JH58" s="11">
-        <v>12600</v>
+        <v>12300</v>
+      </c>
+      <c r="JI58" s="11">
+        <v>12000</v>
       </c>
     </row>
-    <row r="59" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>75</v>
       </c>
@@ -43631,8 +43784,11 @@
       <c r="JH59" s="11">
         <v>8500</v>
       </c>
+      <c r="JI59" s="11">
+        <v>8300</v>
+      </c>
     </row>
-    <row r="60" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>76</v>
       </c>
@@ -44433,10 +44589,13 @@
         <v>2500</v>
       </c>
       <c r="JH60" s="11">
-        <v>2600</v>
+        <v>2500</v>
+      </c>
+      <c r="JI60" s="11">
+        <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>79</v>
       </c>
@@ -45237,10 +45396,13 @@
         <v>9700</v>
       </c>
       <c r="JH61" s="11">
-        <v>9800</v>
+        <v>9700</v>
+      </c>
+      <c r="JI61" s="11">
+        <v>9500</v>
       </c>
     </row>
-    <row r="62" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>80</v>
       </c>
@@ -46043,8 +46205,11 @@
       <c r="JH62" s="11">
         <v>2800</v>
       </c>
+      <c r="JI62" s="11">
+        <v>2700</v>
+      </c>
     </row>
-    <row r="63" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>84</v>
       </c>
@@ -46845,10 +47010,13 @@
         <v>19100</v>
       </c>
       <c r="JH63" s="11">
-        <v>18700</v>
+        <v>19200</v>
+      </c>
+      <c r="JI63" s="11">
+        <v>19400</v>
       </c>
     </row>
-    <row r="64" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>85</v>
       </c>
@@ -47649,10 +47817,13 @@
         <v>14000</v>
       </c>
       <c r="JH64" s="11">
-        <v>14000</v>
+        <v>14400</v>
+      </c>
+      <c r="JI64" s="11">
+        <v>14600</v>
       </c>
     </row>
-    <row r="65" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>87</v>
       </c>
@@ -48453,10 +48624,13 @@
         <v>158800</v>
       </c>
       <c r="JH65" s="11">
-        <v>159600</v>
+        <v>159300</v>
+      </c>
+      <c r="JI65" s="11">
+        <v>159400</v>
       </c>
     </row>
-    <row r="66" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>88</v>
       </c>
@@ -49257,10 +49431,13 @@
         <v>42500</v>
       </c>
       <c r="JH66" s="11">
-        <v>42800</v>
+        <v>42600</v>
+      </c>
+      <c r="JI66" s="11">
+        <v>42600</v>
       </c>
     </row>
-    <row r="67" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>89</v>
       </c>
@@ -50063,8 +50240,11 @@
       <c r="JH67" s="11">
         <v>8700</v>
       </c>
+      <c r="JI67" s="11">
+        <v>8900</v>
+      </c>
     </row>
-    <row r="68" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>90</v>
       </c>
@@ -50865,10 +51045,13 @@
         <v>107600</v>
       </c>
       <c r="JH68" s="11">
-        <v>108100</v>
+        <v>108000</v>
+      </c>
+      <c r="JI68" s="11">
+        <v>107900</v>
       </c>
     </row>
-    <row r="69" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>91</v>
       </c>
@@ -51669,10 +51852,13 @@
         <v>104100</v>
       </c>
       <c r="JH69" s="11">
-        <v>104600</v>
+        <v>104500</v>
+      </c>
+      <c r="JI69" s="11">
+        <v>104300</v>
       </c>
     </row>
-    <row r="70" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>92</v>
       </c>
@@ -52475,8 +52661,11 @@
       <c r="JH70" s="11">
         <v>46400</v>
       </c>
+      <c r="JI70" s="11">
+        <v>46700</v>
+      </c>
     </row>
-    <row r="71" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>93</v>
       </c>
@@ -53277,10 +53466,13 @@
         <v>15100</v>
       </c>
       <c r="JH71" s="11">
-        <v>15200</v>
+        <v>15100</v>
+      </c>
+      <c r="JI71" s="11">
+        <v>15500</v>
       </c>
     </row>
-    <row r="72" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>94</v>
       </c>
@@ -54083,8 +54275,11 @@
       <c r="JH72" s="11">
         <v>22700</v>
       </c>
+      <c r="JI72" s="11">
+        <v>22600</v>
+      </c>
     </row>
-    <row r="73" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>98</v>
       </c>
@@ -54885,10 +55080,13 @@
         <v>259600</v>
       </c>
       <c r="JH73" s="11">
-        <v>259200</v>
+        <v>259600</v>
+      </c>
+      <c r="JI73" s="11">
+        <v>258900</v>
       </c>
     </row>
-    <row r="74" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>99</v>
       </c>
@@ -55689,10 +55887,13 @@
         <v>17500</v>
       </c>
       <c r="JH74" s="11">
-        <v>17800</v>
+        <v>18000</v>
+      </c>
+      <c r="JI74" s="11">
+        <v>18900</v>
       </c>
     </row>
-    <row r="75" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>100</v>
       </c>
@@ -56495,8 +56696,11 @@
       <c r="JH75" s="11">
         <v>5400</v>
       </c>
+      <c r="JI75" s="11">
+        <v>6000</v>
+      </c>
     </row>
-    <row r="76" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>102</v>
       </c>
@@ -57297,10 +57501,13 @@
         <v>242100</v>
       </c>
       <c r="JH76" s="11">
-        <v>241400</v>
+        <v>241600</v>
+      </c>
+      <c r="JI76" s="11">
+        <v>240000</v>
       </c>
     </row>
-    <row r="77" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>103</v>
       </c>
@@ -58101,10 +58308,13 @@
         <v>85200</v>
       </c>
       <c r="JH77" s="11">
-        <v>85200</v>
+        <v>85100</v>
+      </c>
+      <c r="JI77" s="11">
+        <v>83900</v>
       </c>
     </row>
-    <row r="78" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>104</v>
       </c>
@@ -58907,8 +59117,11 @@
       <c r="JH78" s="11">
         <v>24200</v>
       </c>
+      <c r="JI78" s="11">
+        <v>24100</v>
+      </c>
     </row>
-    <row r="79" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>106</v>
       </c>
@@ -59709,10 +59922,13 @@
         <v>42600</v>
       </c>
       <c r="JH79" s="11">
-        <v>42300</v>
+        <v>42400</v>
+      </c>
+      <c r="JI79" s="11">
+        <v>42400</v>
       </c>
     </row>
-    <row r="80" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>107</v>
       </c>
@@ -60515,8 +60731,11 @@
       <c r="JH80" s="11">
         <v>26200</v>
       </c>
+      <c r="JI80" s="11">
+        <v>26100</v>
+      </c>
     </row>
-    <row r="81" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>112</v>
       </c>
@@ -61317,10 +61536,13 @@
         <v>148500</v>
       </c>
       <c r="JH81" s="11">
-        <v>148500</v>
+        <v>148700</v>
+      </c>
+      <c r="JI81" s="11">
+        <v>147800</v>
       </c>
     </row>
-    <row r="82" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>113</v>
       </c>
@@ -62121,10 +62343,13 @@
         <v>11200</v>
       </c>
       <c r="JH82" s="11">
-        <v>11200</v>
+        <v>11300</v>
+      </c>
+      <c r="JI82" s="11">
+        <v>11700</v>
       </c>
     </row>
-    <row r="83" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>114</v>
       </c>
@@ -62925,10 +63150,13 @@
         <v>137300</v>
       </c>
       <c r="JH83" s="11">
-        <v>137300</v>
+        <v>137400</v>
+      </c>
+      <c r="JI83" s="11">
+        <v>136100</v>
       </c>
     </row>
-    <row r="84" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>115</v>
       </c>
@@ -63731,8 +63959,11 @@
       <c r="JH84" s="11">
         <v>12700</v>
       </c>
+      <c r="JI84" s="11">
+        <v>12700</v>
+      </c>
     </row>
-    <row r="85" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>116</v>
       </c>
@@ -64533,10 +64764,13 @@
         <v>125100</v>
       </c>
       <c r="JH85" s="11">
-        <v>124600</v>
+        <v>124700</v>
+      </c>
+      <c r="JI85" s="11">
+        <v>123400</v>
       </c>
     </row>
-    <row r="86" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>117</v>
       </c>
@@ -65337,10 +65571,13 @@
         <v>121900</v>
       </c>
       <c r="JH86" s="11">
-        <v>121400</v>
+        <v>121500</v>
+      </c>
+      <c r="JI86" s="11">
+        <v>120100</v>
       </c>
     </row>
-    <row r="87" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>118</v>
       </c>
@@ -66143,8 +66380,11 @@
       <c r="JH87" s="11">
         <v>39900</v>
       </c>
+      <c r="JI87" s="11">
+        <v>39500</v>
+      </c>
     </row>
-    <row r="88" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>119</v>
       </c>
@@ -66945,10 +67185,13 @@
         <v>82000</v>
       </c>
       <c r="JH88" s="11">
-        <v>81500</v>
+        <v>81600</v>
+      </c>
+      <c r="JI88" s="11">
+        <v>80600</v>
       </c>
     </row>
-    <row r="89" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>121</v>
       </c>
@@ -67749,10 +67992,13 @@
         <v>41000</v>
       </c>
       <c r="JH89" s="11">
-        <v>41300</v>
+        <v>42100</v>
+      </c>
+      <c r="JI89" s="11">
+        <v>43500</v>
       </c>
     </row>
-    <row r="90" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>122</v>
       </c>
@@ -68553,10 +68799,13 @@
         <v>16200</v>
       </c>
       <c r="JH90" s="11">
-        <v>16200</v>
+        <v>17000</v>
+      </c>
+      <c r="JI90" s="11">
+        <v>17200</v>
       </c>
     </row>
-    <row r="91" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>123</v>
       </c>
@@ -69359,8 +69608,11 @@
       <c r="JH91" s="11">
         <v>11900</v>
       </c>
+      <c r="JI91" s="11">
+        <v>12700</v>
+      </c>
     </row>
-    <row r="92" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>125</v>
       </c>
@@ -70161,10 +70413,13 @@
         <v>227700</v>
       </c>
       <c r="JH92" s="11">
-        <v>232000</v>
+        <v>231800</v>
+      </c>
+      <c r="JI92" s="11">
+        <v>234200</v>
       </c>
     </row>
-    <row r="93" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>126</v>
       </c>
@@ -70965,10 +71220,13 @@
         <v>21600</v>
       </c>
       <c r="JH93" s="11">
-        <v>21500</v>
+        <v>21300</v>
+      </c>
+      <c r="JI93" s="11">
+        <v>21200</v>
       </c>
     </row>
-    <row r="94" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>127</v>
       </c>
@@ -71769,10 +72027,13 @@
         <v>6200</v>
       </c>
       <c r="JH94" s="11">
-        <v>6200</v>
+        <v>6000</v>
+      </c>
+      <c r="JI94" s="11">
+        <v>6000</v>
       </c>
     </row>
-    <row r="95" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>128</v>
       </c>
@@ -72575,8 +72836,11 @@
       <c r="JH95" s="11">
         <v>15300</v>
       </c>
+      <c r="JI95" s="11">
+        <v>15200</v>
+      </c>
     </row>
-    <row r="96" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>129</v>
       </c>
@@ -73379,8 +73643,11 @@
       <c r="JH96" s="11">
         <v>210500</v>
       </c>
+      <c r="JI96" s="11">
+        <v>213000</v>
+      </c>
     </row>
-    <row r="97" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>130</v>
       </c>
@@ -74183,8 +74450,11 @@
       <c r="JH97" s="11">
         <v>29200</v>
       </c>
+      <c r="JI97" s="11">
+        <v>30400</v>
+      </c>
     </row>
-    <row r="98" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>131</v>
       </c>
@@ -74987,8 +75257,11 @@
       <c r="JH98" s="11">
         <v>10400</v>
       </c>
+      <c r="JI98" s="11">
+        <v>11600</v>
+      </c>
     </row>
-    <row r="99" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>132</v>
       </c>
@@ -75791,8 +76064,11 @@
       <c r="JH99" s="11">
         <v>18800</v>
       </c>
+      <c r="JI99" s="11">
+        <v>18800</v>
+      </c>
     </row>
-    <row r="100" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>133</v>
       </c>
@@ -76595,8 +76871,11 @@
       <c r="JH100" s="11">
         <v>181300</v>
       </c>
+      <c r="JI100" s="11">
+        <v>182600</v>
+      </c>
     </row>
-    <row r="101" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>134</v>
       </c>
@@ -77399,8 +77678,11 @@
       <c r="JH101" s="11">
         <v>104900</v>
       </c>
+      <c r="JI101" s="11">
+        <v>106300</v>
+      </c>
     </row>
-    <row r="102" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>135</v>
       </c>
@@ -78203,8 +78485,11 @@
       <c r="JH102" s="11">
         <v>76400</v>
       </c>
+      <c r="JI102" s="11">
+        <v>76300</v>
+      </c>
     </row>
-    <row r="103" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>136</v>
       </c>
@@ -79007,8 +79292,11 @@
       <c r="JH103" s="11">
         <v>33100</v>
       </c>
+      <c r="JI103" s="11">
+        <v>33000</v>
+      </c>
     </row>
-    <row r="104" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>137</v>
       </c>
@@ -79811,8 +80099,11 @@
       <c r="JH104" s="11">
         <v>14500</v>
       </c>
+      <c r="JI104" s="11">
+        <v>13900</v>
+      </c>
     </row>
-    <row r="105" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>138</v>
       </c>
@@ -80615,8 +80906,11 @@
       <c r="JH105" s="11">
         <v>28800</v>
       </c>
+      <c r="JI105" s="11">
+        <v>29400</v>
+      </c>
     </row>
-    <row r="107" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
         <v>237</v>
       </c>
@@ -80629,7 +80923,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="16"/>
     </row>
-    <row r="108" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>16</v>
       </c>
@@ -80642,7 +80936,7 @@
       <c r="H108" s="14"/>
       <c r="I108" s="18"/>
     </row>
-    <row r="109" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>238</v>
       </c>
@@ -80655,7 +80949,7 @@
       <c r="H109" s="14"/>
       <c r="I109" s="18"/>
     </row>
-    <row r="110" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
         <v>239</v>
       </c>
@@ -80668,7 +80962,7 @@
       <c r="H110" s="14"/>
       <c r="I110" s="18"/>
     </row>
-    <row r="111" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>240</v>
       </c>
@@ -80681,7 +80975,7 @@
       <c r="H111" s="14"/>
       <c r="I111" s="18"/>
     </row>
-    <row r="112" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
         <v>241</v>
       </c>

--- a/lowe/edd/data/RIVE$HWS.xlsx
+++ b/lowe/edd/data/RIVE$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1754,7 +1754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI114"/>
+  <dimension ref="A1:JJ114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1771,12 +1771,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1804,12 +1804,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2627,11 +2627,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3435,10 +3438,13 @@
         <v>2090700</v>
       </c>
       <c r="JI9" s="11">
-        <v>2093600</v>
+        <v>2097400</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>2114000</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4242,10 +4248,13 @@
         <v>1931100</v>
       </c>
       <c r="JI10" s="11">
-        <v>1955500</v>
+        <v>1958800</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>1980900</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -5049,10 +5058,13 @@
         <v>159600</v>
       </c>
       <c r="JI11" s="11">
-        <v>138100</v>
+        <v>138600</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>133000</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5858,8 +5870,11 @@
       <c r="JI12" s="12">
         <v>6.6000000000000003E-2</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>6.3E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6663,10 +6678,13 @@
         <v>1535200</v>
       </c>
       <c r="JI13" s="11">
-        <v>1543700</v>
+        <v>1546600</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>1574400</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7472,8 +7490,11 @@
       <c r="JI14" s="11">
         <v>11700</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>12500</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8277,10 +8298,13 @@
         <v>1524400</v>
       </c>
       <c r="JI15" s="11">
-        <v>1532000</v>
+        <v>1534900</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>1561900</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -9084,10 +9108,13 @@
         <v>1292600</v>
       </c>
       <c r="JI16" s="11">
-        <v>1297800</v>
+        <v>1301200</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>1320200</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9891,10 +9918,13 @@
         <v>200400</v>
       </c>
       <c r="JI17" s="11">
-        <v>200900</v>
+        <v>202700</v>
+      </c>
+      <c r="JJ17" s="11">
+        <v>205300</v>
       </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10698,10 +10728,13 @@
         <v>109300</v>
       </c>
       <c r="JI18" s="11">
-        <v>109100</v>
+        <v>110900</v>
+      </c>
+      <c r="JJ18" s="11">
+        <v>112500</v>
       </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11507,8 +11540,11 @@
       <c r="JI19" s="11">
         <v>1300</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12312,10 +12348,13 @@
         <v>108000</v>
       </c>
       <c r="JI20" s="11">
-        <v>107800</v>
+        <v>109600</v>
+      </c>
+      <c r="JJ20" s="11">
+        <v>111200</v>
       </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -13119,10 +13158,13 @@
         <v>16200</v>
       </c>
       <c r="JI21" s="11">
-        <v>16600</v>
+        <v>17000</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>17600</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13926,10 +13968,13 @@
         <v>12100</v>
       </c>
       <c r="JI22" s="11">
-        <v>12300</v>
+        <v>12600</v>
+      </c>
+      <c r="JJ22" s="11">
+        <v>12800</v>
       </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14733,10 +14778,13 @@
         <v>79700</v>
       </c>
       <c r="JI23" s="11">
-        <v>78900</v>
+        <v>80000</v>
+      </c>
+      <c r="JJ23" s="11">
+        <v>80800</v>
       </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15540,10 +15588,13 @@
         <v>23700</v>
       </c>
       <c r="JI24" s="11">
-        <v>23100</v>
+        <v>24000</v>
+      </c>
+      <c r="JJ24" s="11">
+        <v>24200</v>
       </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -16347,10 +16398,13 @@
         <v>30100</v>
       </c>
       <c r="JI25" s="11">
-        <v>30300</v>
+        <v>30700</v>
+      </c>
+      <c r="JJ25" s="11">
+        <v>30600</v>
       </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -17154,10 +17208,13 @@
         <v>18200</v>
       </c>
       <c r="JI26" s="11">
-        <v>17800</v>
+        <v>18000</v>
+      </c>
+      <c r="JJ26" s="11">
+        <v>18500</v>
       </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -17963,8 +18020,11 @@
       <c r="JI27" s="11">
         <v>91800</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>92800</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -18768,10 +18828,13 @@
         <v>58600</v>
       </c>
       <c r="JI28" s="11">
-        <v>58300</v>
+        <v>58500</v>
+      </c>
+      <c r="JJ28" s="11">
+        <v>59000</v>
       </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -19577,8 +19640,11 @@
       <c r="JI29" s="11">
         <v>13900</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>13900</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -20382,10 +20448,13 @@
         <v>32500</v>
       </c>
       <c r="JI30" s="11">
-        <v>33500</v>
+        <v>33300</v>
+      </c>
+      <c r="JJ30" s="11">
+        <v>33800</v>
       </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>32</v>
       </c>
@@ -21189,10 +21258,13 @@
         <v>1324000</v>
       </c>
       <c r="JI31" s="11">
-        <v>1331100</v>
+        <v>1332200</v>
+      </c>
+      <c r="JJ31" s="11">
+        <v>1356600</v>
       </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>33</v>
       </c>
@@ -21996,10 +22068,13 @@
         <v>1092200</v>
       </c>
       <c r="JI32" s="11">
-        <v>1096900</v>
+        <v>1098500</v>
+      </c>
+      <c r="JJ32" s="11">
+        <v>1114900</v>
       </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>34</v>
       </c>
@@ -22803,10 +22878,13 @@
         <v>430900</v>
       </c>
       <c r="JI33" s="11">
-        <v>436100</v>
+        <v>436800</v>
+      </c>
+      <c r="JJ33" s="11">
+        <v>444200</v>
       </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>35</v>
       </c>
@@ -23610,10 +23688,13 @@
         <v>65100</v>
       </c>
       <c r="JI34" s="11">
-        <v>64500</v>
+        <v>64800</v>
+      </c>
+      <c r="JJ34" s="11">
+        <v>65000</v>
       </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -24417,10 +24498,13 @@
         <v>36400</v>
       </c>
       <c r="JI35" s="11">
-        <v>35700</v>
+        <v>35900</v>
+      </c>
+      <c r="JJ35" s="11">
+        <v>36100</v>
       </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>37</v>
       </c>
@@ -25226,8 +25310,11 @@
       <c r="JI36" s="11">
         <v>25300</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>25400</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>40</v>
       </c>
@@ -26031,10 +26118,13 @@
         <v>174900</v>
       </c>
       <c r="JI37" s="11">
-        <v>175500</v>
+        <v>175900</v>
+      </c>
+      <c r="JJ37" s="11">
+        <v>179500</v>
       </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>41</v>
       </c>
@@ -26838,10 +26928,13 @@
         <v>25600</v>
       </c>
       <c r="JI38" s="11">
-        <v>25100</v>
+        <v>25200</v>
+      </c>
+      <c r="JJ38" s="11">
+        <v>25600</v>
       </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>44</v>
       </c>
@@ -27647,8 +27740,11 @@
       <c r="JI39" s="11">
         <v>7900</v>
       </c>
+      <c r="JJ39" s="11">
+        <v>7900</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>46</v>
       </c>
@@ -28452,10 +28548,13 @@
         <v>16300</v>
       </c>
       <c r="JI40" s="11">
-        <v>16200</v>
+        <v>16100</v>
+      </c>
+      <c r="JJ40" s="11">
+        <v>15900</v>
       </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>49</v>
       </c>
@@ -29259,10 +29358,13 @@
         <v>35100</v>
       </c>
       <c r="JI41" s="11">
-        <v>35600</v>
+        <v>36000</v>
+      </c>
+      <c r="JJ41" s="11">
+        <v>36300</v>
       </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>50</v>
       </c>
@@ -30068,8 +30170,11 @@
       <c r="JI42" s="11">
         <v>11300</v>
       </c>
+      <c r="JJ42" s="11">
+        <v>11600</v>
+      </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>51</v>
       </c>
@@ -30875,8 +30980,11 @@
       <c r="JI43" s="11">
         <v>17700</v>
       </c>
+      <c r="JJ43" s="11">
+        <v>18300</v>
+      </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>52</v>
       </c>
@@ -31682,8 +31790,11 @@
       <c r="JI44" s="11">
         <v>13700</v>
       </c>
+      <c r="JJ44" s="11">
+        <v>14200</v>
+      </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>54</v>
       </c>
@@ -32489,8 +32600,11 @@
       <c r="JI45" s="11">
         <v>36700</v>
       </c>
+      <c r="JJ45" s="11">
+        <v>38400</v>
+      </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>58</v>
       </c>
@@ -33296,8 +33410,11 @@
       <c r="JI46" s="11">
         <v>196100</v>
       </c>
+      <c r="JJ46" s="11">
+        <v>199700</v>
+      </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>59</v>
       </c>
@@ -34103,8 +34220,11 @@
       <c r="JI47" s="11">
         <v>5300</v>
       </c>
+      <c r="JJ47" s="11">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>60</v>
       </c>
@@ -34910,8 +35030,11 @@
       <c r="JI48" s="11">
         <v>190800</v>
       </c>
+      <c r="JJ48" s="11">
+        <v>194500</v>
+      </c>
     </row>
-    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>62</v>
       </c>
@@ -35715,10 +35838,13 @@
         <v>33800</v>
       </c>
       <c r="JI49" s="11">
-        <v>33900</v>
+        <v>34200</v>
+      </c>
+      <c r="JJ49" s="11">
+        <v>35000</v>
       </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>63</v>
       </c>
@@ -36522,10 +36648,13 @@
         <v>24700</v>
       </c>
       <c r="JI50" s="11">
-        <v>24800</v>
+        <v>25100</v>
+      </c>
+      <c r="JJ50" s="11">
+        <v>25800</v>
       </c>
     </row>
-    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>66</v>
       </c>
@@ -37331,8 +37460,11 @@
       <c r="JI51" s="11">
         <v>22100</v>
       </c>
+      <c r="JJ51" s="11">
+        <v>22400</v>
+      </c>
     </row>
-    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>67</v>
       </c>
@@ -38136,10 +38268,13 @@
         <v>115300</v>
       </c>
       <c r="JI52" s="11">
-        <v>118300</v>
+        <v>117700</v>
+      </c>
+      <c r="JJ52" s="11">
+        <v>119200</v>
       </c>
     </row>
-    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>68</v>
       </c>
@@ -38943,10 +39078,13 @@
         <v>9100</v>
       </c>
       <c r="JI53" s="11">
-        <v>9100</v>
+        <v>9200</v>
+      </c>
+      <c r="JJ53" s="11">
+        <v>9300</v>
       </c>
     </row>
-    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>69</v>
       </c>
@@ -39752,8 +39890,11 @@
       <c r="JI54" s="11">
         <v>1700</v>
       </c>
+      <c r="JJ54" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>70</v>
       </c>
@@ -40559,8 +40700,11 @@
       <c r="JI55" s="11">
         <v>4600</v>
       </c>
+      <c r="JJ55" s="11">
+        <v>4600</v>
+      </c>
     </row>
-    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>72</v>
       </c>
@@ -41364,10 +41508,13 @@
         <v>42500</v>
       </c>
       <c r="JI56" s="11">
-        <v>42100</v>
+        <v>42300</v>
+      </c>
+      <c r="JJ56" s="11">
+        <v>43100</v>
       </c>
     </row>
-    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>73</v>
       </c>
@@ -42173,8 +42320,11 @@
       <c r="JI57" s="11">
         <v>22700</v>
       </c>
+      <c r="JJ57" s="11">
+        <v>23100</v>
+      </c>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>74</v>
       </c>
@@ -42980,8 +43130,11 @@
       <c r="JI58" s="11">
         <v>12000</v>
       </c>
+      <c r="JJ58" s="11">
+        <v>11900</v>
+      </c>
     </row>
-    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>75</v>
       </c>
@@ -43785,10 +43938,13 @@
         <v>8500</v>
       </c>
       <c r="JI59" s="11">
-        <v>8300</v>
+        <v>8200</v>
+      </c>
+      <c r="JJ59" s="11">
+        <v>8100</v>
       </c>
     </row>
-    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>76</v>
       </c>
@@ -44594,8 +44750,11 @@
       <c r="JI60" s="11">
         <v>2400</v>
       </c>
+      <c r="JJ60" s="11">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>79</v>
       </c>
@@ -45399,10 +45558,13 @@
         <v>9700</v>
       </c>
       <c r="JI61" s="11">
-        <v>9500</v>
+        <v>9400</v>
+      </c>
+      <c r="JJ61" s="11">
+        <v>9700</v>
       </c>
     </row>
-    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>80</v>
       </c>
@@ -46208,8 +46370,11 @@
       <c r="JI62" s="11">
         <v>2700</v>
       </c>
+      <c r="JJ62" s="11">
+        <v>2700</v>
+      </c>
     </row>
-    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>84</v>
       </c>
@@ -47013,10 +47178,13 @@
         <v>19200</v>
       </c>
       <c r="JI63" s="11">
-        <v>19400</v>
+        <v>19600</v>
+      </c>
+      <c r="JJ63" s="11">
+        <v>20000</v>
       </c>
     </row>
-    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>85</v>
       </c>
@@ -47820,10 +47988,13 @@
         <v>14400</v>
       </c>
       <c r="JI64" s="11">
-        <v>14600</v>
+        <v>14400</v>
+      </c>
+      <c r="JJ64" s="11">
+        <v>14900</v>
       </c>
     </row>
-    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>87</v>
       </c>
@@ -48627,10 +48798,13 @@
         <v>159300</v>
       </c>
       <c r="JI65" s="11">
-        <v>159400</v>
+        <v>159000</v>
+      </c>
+      <c r="JJ65" s="11">
+        <v>161000</v>
       </c>
     </row>
-    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>88</v>
       </c>
@@ -49434,10 +49608,13 @@
         <v>42600</v>
       </c>
       <c r="JI66" s="11">
+        <v>42500</v>
+      </c>
+      <c r="JJ66" s="11">
         <v>42600</v>
       </c>
     </row>
-    <row r="67" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>89</v>
       </c>
@@ -50241,10 +50418,13 @@
         <v>8700</v>
       </c>
       <c r="JI67" s="11">
-        <v>8900</v>
+        <v>8800</v>
+      </c>
+      <c r="JJ67" s="11">
+        <v>8600</v>
       </c>
     </row>
-    <row r="68" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>90</v>
       </c>
@@ -51048,10 +51228,13 @@
         <v>108000</v>
       </c>
       <c r="JI68" s="11">
-        <v>107900</v>
+        <v>107700</v>
+      </c>
+      <c r="JJ68" s="11">
+        <v>109800</v>
       </c>
     </row>
-    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>91</v>
       </c>
@@ -51855,10 +52038,13 @@
         <v>104500</v>
       </c>
       <c r="JI69" s="11">
-        <v>104300</v>
+        <v>104500</v>
+      </c>
+      <c r="JJ69" s="11">
+        <v>106300</v>
       </c>
     </row>
-    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>92</v>
       </c>
@@ -52662,10 +52848,13 @@
         <v>46400</v>
       </c>
       <c r="JI70" s="11">
-        <v>46700</v>
+        <v>47000</v>
+      </c>
+      <c r="JJ70" s="11">
+        <v>49100</v>
       </c>
     </row>
-    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>93</v>
       </c>
@@ -53471,8 +53660,11 @@
       <c r="JI71" s="11">
         <v>15500</v>
       </c>
+      <c r="JJ71" s="11">
+        <v>15800</v>
+      </c>
     </row>
-    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>94</v>
       </c>
@@ -54278,8 +54470,11 @@
       <c r="JI72" s="11">
         <v>22600</v>
       </c>
+      <c r="JJ72" s="11">
+        <v>22400</v>
+      </c>
     </row>
-    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>98</v>
       </c>
@@ -55083,10 +55278,13 @@
         <v>259600</v>
       </c>
       <c r="JI73" s="11">
-        <v>258900</v>
+        <v>259400</v>
+      </c>
+      <c r="JJ73" s="11">
+        <v>261600</v>
       </c>
     </row>
-    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>99</v>
       </c>
@@ -55892,8 +56090,11 @@
       <c r="JI74" s="11">
         <v>18900</v>
       </c>
+      <c r="JJ74" s="11">
+        <v>20300</v>
+      </c>
     </row>
-    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>100</v>
       </c>
@@ -56699,8 +56900,11 @@
       <c r="JI75" s="11">
         <v>6000</v>
       </c>
+      <c r="JJ75" s="11">
+        <v>6800</v>
+      </c>
     </row>
-    <row r="76" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>102</v>
       </c>
@@ -57504,10 +57708,13 @@
         <v>241600</v>
       </c>
       <c r="JI76" s="11">
-        <v>240000</v>
+        <v>240500</v>
+      </c>
+      <c r="JJ76" s="11">
+        <v>241300</v>
       </c>
     </row>
-    <row r="77" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>103</v>
       </c>
@@ -58311,10 +58518,13 @@
         <v>85100</v>
       </c>
       <c r="JI77" s="11">
-        <v>83900</v>
+        <v>84100</v>
+      </c>
+      <c r="JJ77" s="11">
+        <v>84900</v>
       </c>
     </row>
-    <row r="78" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>104</v>
       </c>
@@ -59118,10 +59328,13 @@
         <v>24200</v>
       </c>
       <c r="JI78" s="11">
-        <v>24100</v>
+        <v>24200</v>
+      </c>
+      <c r="JJ78" s="11">
+        <v>24300</v>
       </c>
     </row>
-    <row r="79" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>106</v>
       </c>
@@ -59925,10 +60138,13 @@
         <v>42400</v>
       </c>
       <c r="JI79" s="11">
-        <v>42400</v>
+        <v>42300</v>
+      </c>
+      <c r="JJ79" s="11">
+        <v>42100</v>
       </c>
     </row>
-    <row r="80" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>107</v>
       </c>
@@ -60734,8 +60950,11 @@
       <c r="JI80" s="11">
         <v>26100</v>
       </c>
+      <c r="JJ80" s="11">
+        <v>26100</v>
+      </c>
     </row>
-    <row r="81" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>112</v>
       </c>
@@ -61539,10 +61758,13 @@
         <v>148700</v>
       </c>
       <c r="JI81" s="11">
-        <v>147800</v>
+        <v>148000</v>
+      </c>
+      <c r="JJ81" s="11">
+        <v>151700</v>
       </c>
     </row>
-    <row r="82" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>113</v>
       </c>
@@ -62346,10 +62568,13 @@
         <v>11300</v>
       </c>
       <c r="JI82" s="11">
-        <v>11700</v>
+        <v>11400</v>
+      </c>
+      <c r="JJ82" s="11">
+        <v>12100</v>
       </c>
     </row>
-    <row r="83" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>114</v>
       </c>
@@ -63153,10 +63378,13 @@
         <v>137400</v>
       </c>
       <c r="JI83" s="11">
-        <v>136100</v>
+        <v>136600</v>
+      </c>
+      <c r="JJ83" s="11">
+        <v>139600</v>
       </c>
     </row>
-    <row r="84" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>115</v>
       </c>
@@ -63960,10 +64188,13 @@
         <v>12700</v>
       </c>
       <c r="JI84" s="11">
-        <v>12700</v>
+        <v>12600</v>
+      </c>
+      <c r="JJ84" s="11">
+        <v>12800</v>
       </c>
     </row>
-    <row r="85" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>116</v>
       </c>
@@ -64767,10 +64998,13 @@
         <v>124700</v>
       </c>
       <c r="JI85" s="11">
-        <v>123400</v>
+        <v>124000</v>
+      </c>
+      <c r="JJ85" s="11">
+        <v>126800</v>
       </c>
     </row>
-    <row r="86" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>117</v>
       </c>
@@ -65574,10 +65808,13 @@
         <v>121500</v>
       </c>
       <c r="JI86" s="11">
-        <v>120100</v>
+        <v>120700</v>
+      </c>
+      <c r="JJ86" s="11">
+        <v>123600</v>
       </c>
     </row>
-    <row r="87" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>118</v>
       </c>
@@ -66381,10 +66618,13 @@
         <v>39900</v>
       </c>
       <c r="JI87" s="11">
-        <v>39500</v>
+        <v>39400</v>
+      </c>
+      <c r="JJ87" s="11">
+        <v>40800</v>
       </c>
     </row>
-    <row r="88" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>119</v>
       </c>
@@ -67188,10 +67428,13 @@
         <v>81600</v>
       </c>
       <c r="JI88" s="11">
-        <v>80600</v>
+        <v>81300</v>
+      </c>
+      <c r="JJ88" s="11">
+        <v>82800</v>
       </c>
     </row>
-    <row r="89" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>121</v>
       </c>
@@ -67995,10 +68238,13 @@
         <v>42100</v>
       </c>
       <c r="JI89" s="11">
-        <v>43500</v>
+        <v>43800</v>
+      </c>
+      <c r="JJ89" s="11">
+        <v>44000</v>
       </c>
     </row>
-    <row r="90" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>122</v>
       </c>
@@ -68802,10 +69048,13 @@
         <v>17000</v>
       </c>
       <c r="JI90" s="11">
-        <v>17200</v>
+        <v>17300</v>
+      </c>
+      <c r="JJ90" s="11">
+        <v>17100</v>
       </c>
     </row>
-    <row r="91" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>123</v>
       </c>
@@ -69609,10 +69858,13 @@
         <v>11900</v>
       </c>
       <c r="JI91" s="11">
-        <v>12700</v>
+        <v>12300</v>
+      </c>
+      <c r="JJ91" s="11">
+        <v>12500</v>
       </c>
     </row>
-    <row r="92" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>125</v>
       </c>
@@ -70416,10 +70668,13 @@
         <v>231800</v>
       </c>
       <c r="JI92" s="11">
-        <v>234200</v>
+        <v>233700</v>
+      </c>
+      <c r="JJ92" s="11">
+        <v>241700</v>
       </c>
     </row>
-    <row r="93" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>126</v>
       </c>
@@ -71225,8 +71480,11 @@
       <c r="JI93" s="11">
         <v>21200</v>
       </c>
+      <c r="JJ93" s="11">
+        <v>21100</v>
+      </c>
     </row>
-    <row r="94" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>127</v>
       </c>
@@ -72032,8 +72290,11 @@
       <c r="JI94" s="11">
         <v>6000</v>
       </c>
+      <c r="JJ94" s="11">
+        <v>6000</v>
+      </c>
     </row>
-    <row r="95" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>128</v>
       </c>
@@ -72839,8 +73100,11 @@
       <c r="JI95" s="11">
         <v>15200</v>
       </c>
+      <c r="JJ95" s="11">
+        <v>15100</v>
+      </c>
     </row>
-    <row r="96" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>129</v>
       </c>
@@ -73644,10 +73908,13 @@
         <v>210500</v>
       </c>
       <c r="JI96" s="11">
-        <v>213000</v>
+        <v>212500</v>
+      </c>
+      <c r="JJ96" s="11">
+        <v>220600</v>
       </c>
     </row>
-    <row r="97" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>130</v>
       </c>
@@ -74451,10 +74718,13 @@
         <v>29200</v>
       </c>
       <c r="JI97" s="11">
-        <v>30400</v>
+        <v>29900</v>
+      </c>
+      <c r="JJ97" s="11">
+        <v>31000</v>
       </c>
     </row>
-    <row r="98" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>131</v>
       </c>
@@ -75258,10 +75528,13 @@
         <v>10400</v>
       </c>
       <c r="JI98" s="11">
-        <v>11600</v>
+        <v>11100</v>
+      </c>
+      <c r="JJ98" s="11">
+        <v>12200</v>
       </c>
     </row>
-    <row r="99" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>132</v>
       </c>
@@ -76067,8 +76340,11 @@
       <c r="JI99" s="11">
         <v>18800</v>
       </c>
+      <c r="JJ99" s="11">
+        <v>18800</v>
+      </c>
     </row>
-    <row r="100" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>133</v>
       </c>
@@ -76874,8 +77150,11 @@
       <c r="JI100" s="11">
         <v>182600</v>
       </c>
+      <c r="JJ100" s="11">
+        <v>189600</v>
+      </c>
     </row>
-    <row r="101" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>134</v>
       </c>
@@ -77681,8 +77960,11 @@
       <c r="JI101" s="11">
         <v>106300</v>
       </c>
+      <c r="JJ101" s="11">
+        <v>113600</v>
+      </c>
     </row>
-    <row r="102" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>135</v>
       </c>
@@ -78488,8 +78770,11 @@
       <c r="JI102" s="11">
         <v>76300</v>
       </c>
+      <c r="JJ102" s="11">
+        <v>76000</v>
+      </c>
     </row>
-    <row r="103" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>136</v>
       </c>
@@ -79295,8 +79580,11 @@
       <c r="JI103" s="11">
         <v>33000</v>
       </c>
+      <c r="JJ103" s="11">
+        <v>32800</v>
+      </c>
     </row>
-    <row r="104" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>137</v>
       </c>
@@ -80102,8 +80390,11 @@
       <c r="JI104" s="11">
         <v>13900</v>
       </c>
+      <c r="JJ104" s="11">
+        <v>13800</v>
+      </c>
     </row>
-    <row r="105" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>138</v>
       </c>
@@ -80909,8 +81200,11 @@
       <c r="JI105" s="11">
         <v>29400</v>
       </c>
+      <c r="JJ105" s="11">
+        <v>29400</v>
+      </c>
     </row>
-    <row r="107" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
         <v>237</v>
       </c>
@@ -80923,7 +81217,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="16"/>
     </row>
-    <row r="108" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>16</v>
       </c>
@@ -80936,7 +81230,7 @@
       <c r="H108" s="14"/>
       <c r="I108" s="18"/>
     </row>
-    <row r="109" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>238</v>
       </c>
@@ -80949,7 +81243,7 @@
       <c r="H109" s="14"/>
       <c r="I109" s="18"/>
     </row>
-    <row r="110" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
         <v>239</v>
       </c>
@@ -80962,7 +81256,7 @@
       <c r="H110" s="14"/>
       <c r="I110" s="18"/>
     </row>
-    <row r="111" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>240</v>
       </c>
@@ -80975,7 +81269,7 @@
       <c r="H111" s="14"/>
       <c r="I111" s="18"/>
     </row>
-    <row r="112" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
         <v>241</v>
       </c>

--- a/lowe/edd/data/RIVE$HWS.xlsx
+++ b/lowe/edd/data/RIVE$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,13 +575,13 @@
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>70-721000</t>
   </si>
   <si>
-    <t xml:space="preserve">            Accommodation</t>
+    <t xml:space="preserve">          Accommodation</t>
   </si>
   <si>
     <t>70-722000</t>
@@ -1754,7 +1754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ114"/>
+  <dimension ref="A1:JL114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1771,12 +1771,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1804,12 +1804,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2630,11 +2630,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3441,10 +3447,16 @@
         <v>2097400</v>
       </c>
       <c r="JJ9" s="11">
-        <v>2114000</v>
+        <v>2113700</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>2123000</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>2121300</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4251,10 +4263,16 @@
         <v>1958800</v>
       </c>
       <c r="JJ10" s="11">
-        <v>1980900</v>
+        <v>1980500</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>2007600</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>2012500</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -5061,10 +5079,16 @@
         <v>138600</v>
       </c>
       <c r="JJ11" s="11">
-        <v>133000</v>
+        <v>133200</v>
+      </c>
+      <c r="JK11" s="11">
+        <v>115300</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>108800</v>
       </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5873,8 +5897,14 @@
       <c r="JJ12" s="12">
         <v>6.3E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6681,10 +6711,16 @@
         <v>1546600</v>
       </c>
       <c r="JJ13" s="11">
-        <v>1574400</v>
+        <v>1574200</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>1590000</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>1592300</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7493,8 +7529,14 @@
       <c r="JJ14" s="11">
         <v>12500</v>
       </c>
+      <c r="JK14" s="11">
+        <v>13100</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>13100</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8301,10 +8343,16 @@
         <v>1534900</v>
       </c>
       <c r="JJ15" s="11">
-        <v>1561900</v>
+        <v>1561700</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>1576900</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>1579200</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -9111,10 +9159,16 @@
         <v>1301200</v>
       </c>
       <c r="JJ16" s="11">
-        <v>1320200</v>
+        <v>1319600</v>
+      </c>
+      <c r="JK16" s="11">
+        <v>1332100</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>1334600</v>
       </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9921,10 +9975,16 @@
         <v>202700</v>
       </c>
       <c r="JJ17" s="11">
-        <v>205300</v>
+        <v>205900</v>
+      </c>
+      <c r="JK17" s="11">
+        <v>204700</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>202400</v>
       </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10731,10 +10791,16 @@
         <v>110900</v>
       </c>
       <c r="JJ18" s="11">
-        <v>112500</v>
+        <v>112800</v>
+      </c>
+      <c r="JK18" s="11">
+        <v>110800</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>107600</v>
       </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11543,8 +11609,14 @@
       <c r="JJ19" s="11">
         <v>1300</v>
       </c>
+      <c r="JK19" s="11">
+        <v>1300</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12351,10 +12423,16 @@
         <v>109600</v>
       </c>
       <c r="JJ20" s="11">
-        <v>111200</v>
+        <v>111500</v>
+      </c>
+      <c r="JK20" s="11">
+        <v>109500</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>106300</v>
       </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -13161,10 +13239,16 @@
         <v>17000</v>
       </c>
       <c r="JJ21" s="11">
-        <v>17600</v>
+        <v>17900</v>
+      </c>
+      <c r="JK21" s="11">
+        <v>17300</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>17300</v>
       </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13971,10 +14055,16 @@
         <v>12600</v>
       </c>
       <c r="JJ22" s="11">
-        <v>12800</v>
+        <v>13000</v>
+      </c>
+      <c r="JK22" s="11">
+        <v>12500</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>12500</v>
       </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14781,10 +14871,16 @@
         <v>80000</v>
       </c>
       <c r="JJ23" s="11">
-        <v>80800</v>
+        <v>80600</v>
+      </c>
+      <c r="JK23" s="11">
+        <v>79700</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>76500</v>
       </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15591,10 +15687,16 @@
         <v>24000</v>
       </c>
       <c r="JJ24" s="11">
-        <v>24200</v>
+        <v>24100</v>
+      </c>
+      <c r="JK24" s="11">
+        <v>23600</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -16401,10 +16503,16 @@
         <v>30700</v>
       </c>
       <c r="JJ25" s="11">
-        <v>30600</v>
+        <v>30800</v>
+      </c>
+      <c r="JK25" s="11">
+        <v>31100</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>29200</v>
       </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -17211,10 +17319,16 @@
         <v>18000</v>
       </c>
       <c r="JJ26" s="11">
-        <v>18500</v>
+        <v>18300</v>
+      </c>
+      <c r="JK26" s="11">
+        <v>17800</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>17200</v>
       </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -18021,10 +18135,16 @@
         <v>91800</v>
       </c>
       <c r="JJ27" s="11">
-        <v>92800</v>
+        <v>93100</v>
+      </c>
+      <c r="JK27" s="11">
+        <v>93900</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>94800</v>
       </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -18831,10 +18951,16 @@
         <v>58500</v>
       </c>
       <c r="JJ28" s="11">
-        <v>59000</v>
+        <v>59200</v>
+      </c>
+      <c r="JK28" s="11">
+        <v>60300</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>60600</v>
       </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -19643,8 +19769,14 @@
       <c r="JJ29" s="11">
         <v>13900</v>
       </c>
+      <c r="JK29" s="11">
+        <v>13800</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>14000</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -20451,10 +20583,16 @@
         <v>33300</v>
       </c>
       <c r="JJ30" s="11">
-        <v>33800</v>
+        <v>33900</v>
+      </c>
+      <c r="JK30" s="11">
+        <v>33600</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>34200</v>
       </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>32</v>
       </c>
@@ -21261,10 +21399,16 @@
         <v>1332200</v>
       </c>
       <c r="JJ31" s="11">
-        <v>1356600</v>
+        <v>1355800</v>
+      </c>
+      <c r="JK31" s="11">
+        <v>1372200</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>1376800</v>
       </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>33</v>
       </c>
@@ -22071,10 +22215,16 @@
         <v>1098500</v>
       </c>
       <c r="JJ32" s="11">
-        <v>1114900</v>
+        <v>1113700</v>
+      </c>
+      <c r="JK32" s="11">
+        <v>1127400</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>1132200</v>
       </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>34</v>
       </c>
@@ -22881,10 +23031,16 @@
         <v>436800</v>
       </c>
       <c r="JJ33" s="11">
-        <v>444200</v>
+        <v>443000</v>
+      </c>
+      <c r="JK33" s="11">
+        <v>454200</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>457100</v>
       </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>35</v>
       </c>
@@ -23691,10 +23847,16 @@
         <v>64800</v>
       </c>
       <c r="JJ34" s="11">
-        <v>65000</v>
+        <v>65200</v>
+      </c>
+      <c r="JK34" s="11">
+        <v>66000</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>65900</v>
       </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -24501,10 +24663,16 @@
         <v>35900</v>
       </c>
       <c r="JJ35" s="11">
-        <v>36100</v>
+        <v>36000</v>
+      </c>
+      <c r="JK35" s="11">
+        <v>36400</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>36200</v>
       </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>37</v>
       </c>
@@ -25313,8 +25481,14 @@
       <c r="JJ36" s="11">
         <v>25400</v>
       </c>
+      <c r="JK36" s="11">
+        <v>25700</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>25700</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>40</v>
       </c>
@@ -26121,10 +26295,16 @@
         <v>175900</v>
       </c>
       <c r="JJ37" s="11">
-        <v>179500</v>
+        <v>179600</v>
+      </c>
+      <c r="JK37" s="11">
+        <v>185100</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>184700</v>
       </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>41</v>
       </c>
@@ -26931,10 +27111,16 @@
         <v>25200</v>
       </c>
       <c r="JJ38" s="11">
+        <v>25500</v>
+      </c>
+      <c r="JK38" s="11">
         <v>25600</v>
       </c>
+      <c r="JL38" s="11">
+        <v>25700</v>
+      </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>44</v>
       </c>
@@ -27743,8 +27929,14 @@
       <c r="JJ39" s="11">
         <v>7900</v>
       </c>
+      <c r="JK39" s="11">
+        <v>7900</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>8000</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>46</v>
       </c>
@@ -28553,8 +28745,14 @@
       <c r="JJ40" s="11">
         <v>15900</v>
       </c>
+      <c r="JK40" s="11">
+        <v>15800</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>16300</v>
+      </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>49</v>
       </c>
@@ -29363,8 +29561,14 @@
       <c r="JJ41" s="11">
         <v>36300</v>
       </c>
+      <c r="JK41" s="11">
+        <v>36700</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>35200</v>
+      </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>50</v>
       </c>
@@ -30173,8 +30377,14 @@
       <c r="JJ42" s="11">
         <v>11600</v>
       </c>
+      <c r="JK42" s="11">
+        <v>12100</v>
+      </c>
+      <c r="JL42" s="11">
+        <v>12200</v>
+      </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>51</v>
       </c>
@@ -30983,8 +31193,14 @@
       <c r="JJ43" s="11">
         <v>18300</v>
       </c>
+      <c r="JK43" s="11">
+        <v>20100</v>
+      </c>
+      <c r="JL43" s="11">
+        <v>20800</v>
+      </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>52</v>
       </c>
@@ -31793,8 +32009,14 @@
       <c r="JJ44" s="11">
         <v>14200</v>
       </c>
+      <c r="JK44" s="11">
+        <v>16100</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>16700</v>
+      </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>54</v>
       </c>
@@ -32603,8 +32825,14 @@
       <c r="JJ45" s="11">
         <v>38400</v>
       </c>
+      <c r="JK45" s="11">
+        <v>41300</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>41500</v>
+      </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>58</v>
       </c>
@@ -33411,10 +33639,16 @@
         <v>196100</v>
       </c>
       <c r="JJ46" s="11">
-        <v>199700</v>
+        <v>198200</v>
+      </c>
+      <c r="JK46" s="11">
+        <v>203100</v>
+      </c>
+      <c r="JL46" s="11">
+        <v>206500</v>
       </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>59</v>
       </c>
@@ -34223,8 +34457,14 @@
       <c r="JJ47" s="11">
         <v>5200</v>
       </c>
+      <c r="JK47" s="11">
+        <v>5300</v>
+      </c>
+      <c r="JL47" s="11">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>60</v>
       </c>
@@ -35031,10 +35271,16 @@
         <v>190800</v>
       </c>
       <c r="JJ48" s="11">
-        <v>194500</v>
+        <v>193000</v>
+      </c>
+      <c r="JK48" s="11">
+        <v>197800</v>
+      </c>
+      <c r="JL48" s="11">
+        <v>201300</v>
       </c>
     </row>
-    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>62</v>
       </c>
@@ -35841,10 +36087,16 @@
         <v>34200</v>
       </c>
       <c r="JJ49" s="11">
-        <v>35000</v>
+        <v>34200</v>
+      </c>
+      <c r="JK49" s="11">
+        <v>34300</v>
+      </c>
+      <c r="JL49" s="11">
+        <v>34100</v>
       </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>63</v>
       </c>
@@ -36651,10 +36903,16 @@
         <v>25100</v>
       </c>
       <c r="JJ50" s="11">
-        <v>25800</v>
+        <v>25100</v>
+      </c>
+      <c r="JK50" s="11">
+        <v>25300</v>
+      </c>
+      <c r="JL50" s="11">
+        <v>25200</v>
       </c>
     </row>
-    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>66</v>
       </c>
@@ -37463,8 +37721,14 @@
       <c r="JJ51" s="11">
         <v>22400</v>
       </c>
+      <c r="JK51" s="11">
+        <v>24400</v>
+      </c>
+      <c r="JL51" s="11">
+        <v>27600</v>
+      </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>67</v>
       </c>
@@ -38271,10 +38535,16 @@
         <v>117700</v>
       </c>
       <c r="JJ52" s="11">
-        <v>119200</v>
+        <v>119900</v>
+      </c>
+      <c r="JK52" s="11">
+        <v>122500</v>
+      </c>
+      <c r="JL52" s="11">
+        <v>122400</v>
       </c>
     </row>
-    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>68</v>
       </c>
@@ -39083,8 +39353,14 @@
       <c r="JJ53" s="11">
         <v>9300</v>
       </c>
+      <c r="JK53" s="11">
+        <v>9300</v>
+      </c>
+      <c r="JL53" s="11">
+        <v>9300</v>
+      </c>
     </row>
-    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>69</v>
       </c>
@@ -39893,8 +40169,14 @@
       <c r="JJ54" s="11">
         <v>1700</v>
       </c>
+      <c r="JK54" s="11">
+        <v>1700</v>
+      </c>
+      <c r="JL54" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>70</v>
       </c>
@@ -40703,8 +40985,14 @@
       <c r="JJ55" s="11">
         <v>4600</v>
       </c>
+      <c r="JK55" s="11">
+        <v>4600</v>
+      </c>
+      <c r="JL55" s="11">
+        <v>4600</v>
+      </c>
     </row>
-    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>72</v>
       </c>
@@ -41513,8 +41801,14 @@
       <c r="JJ56" s="11">
         <v>43100</v>
       </c>
+      <c r="JK56" s="11">
+        <v>43300</v>
+      </c>
+      <c r="JL56" s="11">
+        <v>43600</v>
+      </c>
     </row>
-    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>73</v>
       </c>
@@ -42323,8 +42617,14 @@
       <c r="JJ57" s="11">
         <v>23100</v>
       </c>
+      <c r="JK57" s="11">
+        <v>23400</v>
+      </c>
+      <c r="JL57" s="11">
+        <v>23200</v>
+      </c>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>74</v>
       </c>
@@ -43133,8 +43433,14 @@
       <c r="JJ58" s="11">
         <v>11900</v>
       </c>
+      <c r="JK58" s="11">
+        <v>12200</v>
+      </c>
+      <c r="JL58" s="11">
+        <v>12100</v>
+      </c>
     </row>
-    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>75</v>
       </c>
@@ -43943,8 +44249,14 @@
       <c r="JJ59" s="11">
         <v>8100</v>
       </c>
+      <c r="JK59" s="11">
+        <v>8200</v>
+      </c>
+      <c r="JL59" s="11">
+        <v>8100</v>
+      </c>
     </row>
-    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>76</v>
       </c>
@@ -44753,8 +45065,14 @@
       <c r="JJ60" s="11">
         <v>2400</v>
       </c>
+      <c r="JK60" s="11">
+        <v>2400</v>
+      </c>
+      <c r="JL60" s="11">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>79</v>
       </c>
@@ -45563,8 +45881,14 @@
       <c r="JJ61" s="11">
         <v>9700</v>
       </c>
+      <c r="JK61" s="11">
+        <v>9700</v>
+      </c>
+      <c r="JL61" s="11">
+        <v>9800</v>
+      </c>
     </row>
-    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>80</v>
       </c>
@@ -46373,8 +46697,14 @@
       <c r="JJ62" s="11">
         <v>2700</v>
       </c>
+      <c r="JK62" s="11">
+        <v>2700</v>
+      </c>
+      <c r="JL62" s="11">
+        <v>2700</v>
+      </c>
     </row>
-    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>84</v>
       </c>
@@ -47183,8 +47513,14 @@
       <c r="JJ63" s="11">
         <v>20000</v>
       </c>
+      <c r="JK63" s="11">
+        <v>19900</v>
+      </c>
+      <c r="JL63" s="11">
+        <v>20400</v>
+      </c>
     </row>
-    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>85</v>
       </c>
@@ -47993,8 +48329,14 @@
       <c r="JJ64" s="11">
         <v>14900</v>
       </c>
+      <c r="JK64" s="11">
+        <v>15100</v>
+      </c>
+      <c r="JL64" s="11">
+        <v>15200</v>
+      </c>
     </row>
-    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>87</v>
       </c>
@@ -48801,10 +49143,16 @@
         <v>159000</v>
       </c>
       <c r="JJ65" s="11">
-        <v>161000</v>
+        <v>161300</v>
+      </c>
+      <c r="JK65" s="11">
+        <v>161500</v>
+      </c>
+      <c r="JL65" s="11">
+        <v>162000</v>
       </c>
     </row>
-    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>88</v>
       </c>
@@ -49611,10 +49959,16 @@
         <v>42500</v>
       </c>
       <c r="JJ66" s="11">
-        <v>42600</v>
+        <v>42700</v>
+      </c>
+      <c r="JK66" s="11">
+        <v>42700</v>
+      </c>
+      <c r="JL66" s="11">
+        <v>43400</v>
       </c>
     </row>
-    <row r="67" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>89</v>
       </c>
@@ -50421,10 +50775,16 @@
         <v>8800</v>
       </c>
       <c r="JJ67" s="11">
-        <v>8600</v>
+        <v>8700</v>
+      </c>
+      <c r="JK67" s="11">
+        <v>8700</v>
+      </c>
+      <c r="JL67" s="11">
+        <v>8800</v>
       </c>
     </row>
-    <row r="68" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>90</v>
       </c>
@@ -51231,10 +51591,16 @@
         <v>107700</v>
       </c>
       <c r="JJ68" s="11">
+        <v>109900</v>
+      </c>
+      <c r="JK68" s="11">
+        <v>110100</v>
+      </c>
+      <c r="JL68" s="11">
         <v>109800</v>
       </c>
     </row>
-    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>91</v>
       </c>
@@ -52041,10 +52407,16 @@
         <v>104500</v>
       </c>
       <c r="JJ69" s="11">
-        <v>106300</v>
+        <v>106500</v>
+      </c>
+      <c r="JK69" s="11">
+        <v>106500</v>
+      </c>
+      <c r="JL69" s="11">
+        <v>106200</v>
       </c>
     </row>
-    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>92</v>
       </c>
@@ -52851,10 +53223,16 @@
         <v>47000</v>
       </c>
       <c r="JJ70" s="11">
-        <v>49100</v>
+        <v>49300</v>
+      </c>
+      <c r="JK70" s="11">
+        <v>49800</v>
+      </c>
+      <c r="JL70" s="11">
+        <v>49600</v>
       </c>
     </row>
-    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>93</v>
       </c>
@@ -53661,10 +54039,16 @@
         <v>15500</v>
       </c>
       <c r="JJ71" s="11">
-        <v>15800</v>
+        <v>15700</v>
+      </c>
+      <c r="JK71" s="11">
+        <v>15500</v>
+      </c>
+      <c r="JL71" s="11">
+        <v>15900</v>
       </c>
     </row>
-    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>94</v>
       </c>
@@ -54473,8 +54857,14 @@
       <c r="JJ72" s="11">
         <v>22400</v>
       </c>
+      <c r="JK72" s="11">
+        <v>22300</v>
+      </c>
+      <c r="JL72" s="11">
+        <v>22000</v>
+      </c>
     </row>
-    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>98</v>
       </c>
@@ -55281,10 +55671,16 @@
         <v>259400</v>
       </c>
       <c r="JJ73" s="11">
-        <v>261600</v>
+        <v>262600</v>
+      </c>
+      <c r="JK73" s="11">
+        <v>262300</v>
+      </c>
+      <c r="JL73" s="11">
+        <v>262200</v>
       </c>
     </row>
-    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>99</v>
       </c>
@@ -56091,10 +56487,16 @@
         <v>18900</v>
       </c>
       <c r="JJ74" s="11">
-        <v>20300</v>
+        <v>20200</v>
+      </c>
+      <c r="JK74" s="11">
+        <v>20500</v>
+      </c>
+      <c r="JL74" s="11">
+        <v>20200</v>
       </c>
     </row>
-    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>100</v>
       </c>
@@ -56903,8 +57305,14 @@
       <c r="JJ75" s="11">
         <v>6800</v>
       </c>
+      <c r="JK75" s="11">
+        <v>7000</v>
+      </c>
+      <c r="JL75" s="11">
+        <v>6900</v>
+      </c>
     </row>
-    <row r="76" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>102</v>
       </c>
@@ -57711,10 +58119,16 @@
         <v>240500</v>
       </c>
       <c r="JJ76" s="11">
-        <v>241300</v>
+        <v>242400</v>
+      </c>
+      <c r="JK76" s="11">
+        <v>241800</v>
+      </c>
+      <c r="JL76" s="11">
+        <v>242000</v>
       </c>
     </row>
-    <row r="77" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>103</v>
       </c>
@@ -58521,10 +58935,16 @@
         <v>84100</v>
       </c>
       <c r="JJ77" s="11">
-        <v>84900</v>
+        <v>85700</v>
+      </c>
+      <c r="JK77" s="11">
+        <v>85200</v>
+      </c>
+      <c r="JL77" s="11">
+        <v>86700</v>
       </c>
     </row>
-    <row r="78" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>104</v>
       </c>
@@ -59331,10 +59751,16 @@
         <v>24200</v>
       </c>
       <c r="JJ78" s="11">
-        <v>24300</v>
+        <v>24400</v>
+      </c>
+      <c r="JK78" s="11">
+        <v>24500</v>
+      </c>
+      <c r="JL78" s="11">
+        <v>24600</v>
       </c>
     </row>
-    <row r="79" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>106</v>
       </c>
@@ -60143,8 +60569,14 @@
       <c r="JJ79" s="11">
         <v>42100</v>
       </c>
+      <c r="JK79" s="11">
+        <v>42200</v>
+      </c>
+      <c r="JL79" s="11">
+        <v>42200</v>
+      </c>
     </row>
-    <row r="80" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>107</v>
       </c>
@@ -60953,8 +61385,14 @@
       <c r="JJ80" s="11">
         <v>26100</v>
       </c>
+      <c r="JK80" s="11">
+        <v>26200</v>
+      </c>
+      <c r="JL80" s="11">
+        <v>26100</v>
+      </c>
     </row>
-    <row r="81" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>112</v>
       </c>
@@ -61761,10 +62199,16 @@
         <v>148000</v>
       </c>
       <c r="JJ81" s="11">
-        <v>151700</v>
+        <v>150600</v>
+      </c>
+      <c r="JK81" s="11">
+        <v>152300</v>
+      </c>
+      <c r="JL81" s="11">
+        <v>154300</v>
       </c>
     </row>
-    <row r="82" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>113</v>
       </c>
@@ -62573,8 +63017,14 @@
       <c r="JJ82" s="11">
         <v>12100</v>
       </c>
+      <c r="JK82" s="11">
+        <v>12900</v>
+      </c>
+      <c r="JL82" s="11">
+        <v>12900</v>
+      </c>
     </row>
-    <row r="83" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>114</v>
       </c>
@@ -63381,10 +63831,16 @@
         <v>136600</v>
       </c>
       <c r="JJ83" s="11">
-        <v>139600</v>
+        <v>138500</v>
+      </c>
+      <c r="JK83" s="11">
+        <v>139400</v>
+      </c>
+      <c r="JL83" s="11">
+        <v>141400</v>
       </c>
     </row>
-    <row r="84" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>115</v>
       </c>
@@ -64193,8 +64649,14 @@
       <c r="JJ84" s="11">
         <v>12800</v>
       </c>
+      <c r="JK84" s="11">
+        <v>12800</v>
+      </c>
+      <c r="JL84" s="11">
+        <v>13200</v>
+      </c>
     </row>
-    <row r="85" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>116</v>
       </c>
@@ -65001,10 +65463,16 @@
         <v>124000</v>
       </c>
       <c r="JJ85" s="11">
-        <v>126800</v>
+        <v>125700</v>
+      </c>
+      <c r="JK85" s="11">
+        <v>126600</v>
+      </c>
+      <c r="JL85" s="11">
+        <v>128200</v>
       </c>
     </row>
-    <row r="86" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>117</v>
       </c>
@@ -65811,10 +66279,16 @@
         <v>120700</v>
       </c>
       <c r="JJ86" s="11">
-        <v>123600</v>
+        <v>122400</v>
+      </c>
+      <c r="JK86" s="11">
+        <v>123400</v>
+      </c>
+      <c r="JL86" s="11">
+        <v>124900</v>
       </c>
     </row>
-    <row r="87" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>118</v>
       </c>
@@ -66621,10 +67095,16 @@
         <v>39400</v>
       </c>
       <c r="JJ87" s="11">
-        <v>40800</v>
+        <v>40600</v>
+      </c>
+      <c r="JK87" s="11">
+        <v>41100</v>
+      </c>
+      <c r="JL87" s="11">
+        <v>41500</v>
       </c>
     </row>
-    <row r="88" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>119</v>
       </c>
@@ -67431,10 +67911,16 @@
         <v>81300</v>
       </c>
       <c r="JJ88" s="11">
-        <v>82800</v>
+        <v>81800</v>
+      </c>
+      <c r="JK88" s="11">
+        <v>82300</v>
+      </c>
+      <c r="JL88" s="11">
+        <v>83400</v>
       </c>
     </row>
-    <row r="89" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>121</v>
       </c>
@@ -68241,10 +68727,16 @@
         <v>43800</v>
       </c>
       <c r="JJ89" s="11">
-        <v>44000</v>
+        <v>43800</v>
+      </c>
+      <c r="JK89" s="11">
+        <v>44500</v>
+      </c>
+      <c r="JL89" s="11">
+        <v>43700</v>
       </c>
     </row>
-    <row r="90" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>122</v>
       </c>
@@ -69051,10 +69543,16 @@
         <v>17300</v>
       </c>
       <c r="JJ90" s="11">
-        <v>17100</v>
+        <v>17300</v>
+      </c>
+      <c r="JK90" s="11">
+        <v>17600</v>
+      </c>
+      <c r="JL90" s="11">
+        <v>17200</v>
       </c>
     </row>
-    <row r="91" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>123</v>
       </c>
@@ -69863,8 +70361,14 @@
       <c r="JJ91" s="11">
         <v>12500</v>
       </c>
+      <c r="JK91" s="11">
+        <v>12500</v>
+      </c>
+      <c r="JL91" s="11">
+        <v>12600</v>
+      </c>
     </row>
-    <row r="92" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>125</v>
       </c>
@@ -70671,10 +71175,16 @@
         <v>233700</v>
       </c>
       <c r="JJ92" s="11">
-        <v>241700</v>
+        <v>242100</v>
+      </c>
+      <c r="JK92" s="11">
+        <v>244800</v>
+      </c>
+      <c r="JL92" s="11">
+        <v>244600</v>
       </c>
     </row>
-    <row r="93" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>126</v>
       </c>
@@ -71481,10 +71991,16 @@
         <v>21200</v>
       </c>
       <c r="JJ93" s="11">
-        <v>21100</v>
+        <v>21200</v>
+      </c>
+      <c r="JK93" s="11">
+        <v>21400</v>
+      </c>
+      <c r="JL93" s="11">
+        <v>21500</v>
       </c>
     </row>
-    <row r="94" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>127</v>
       </c>
@@ -72291,10 +72807,16 @@
         <v>6000</v>
       </c>
       <c r="JJ94" s="11">
-        <v>6000</v>
+        <v>6100</v>
+      </c>
+      <c r="JK94" s="11">
+        <v>6100</v>
+      </c>
+      <c r="JL94" s="11">
+        <v>6100</v>
       </c>
     </row>
-    <row r="95" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>128</v>
       </c>
@@ -73103,8 +73625,14 @@
       <c r="JJ95" s="11">
         <v>15100</v>
       </c>
+      <c r="JK95" s="11">
+        <v>15300</v>
+      </c>
+      <c r="JL95" s="11">
+        <v>15400</v>
+      </c>
     </row>
-    <row r="96" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>129</v>
       </c>
@@ -73911,10 +74439,16 @@
         <v>212500</v>
       </c>
       <c r="JJ96" s="11">
-        <v>220600</v>
+        <v>220900</v>
+      </c>
+      <c r="JK96" s="11">
+        <v>223400</v>
+      </c>
+      <c r="JL96" s="11">
+        <v>223100</v>
       </c>
     </row>
-    <row r="97" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>130</v>
       </c>
@@ -74721,10 +75255,16 @@
         <v>29900</v>
       </c>
       <c r="JJ97" s="11">
-        <v>31000</v>
+        <v>31100</v>
+      </c>
+      <c r="JK97" s="11">
+        <v>31700</v>
+      </c>
+      <c r="JL97" s="11">
+        <v>31700</v>
       </c>
     </row>
-    <row r="98" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>131</v>
       </c>
@@ -75531,10 +76071,16 @@
         <v>11100</v>
       </c>
       <c r="JJ98" s="11">
-        <v>12200</v>
+        <v>12400</v>
+      </c>
+      <c r="JK98" s="11">
+        <v>13000</v>
+      </c>
+      <c r="JL98" s="11">
+        <v>13200</v>
       </c>
     </row>
-    <row r="99" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>132</v>
       </c>
@@ -76341,10 +76887,16 @@
         <v>18800</v>
       </c>
       <c r="JJ99" s="11">
-        <v>18800</v>
+        <v>18700</v>
+      </c>
+      <c r="JK99" s="11">
+        <v>18700</v>
+      </c>
+      <c r="JL99" s="11">
+        <v>18500</v>
       </c>
     </row>
-    <row r="100" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>133</v>
       </c>
@@ -77151,10 +77703,16 @@
         <v>182600</v>
       </c>
       <c r="JJ100" s="11">
-        <v>189600</v>
+        <v>189800</v>
+      </c>
+      <c r="JK100" s="11">
+        <v>191700</v>
+      </c>
+      <c r="JL100" s="11">
+        <v>191400</v>
       </c>
     </row>
-    <row r="101" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>134</v>
       </c>
@@ -77961,10 +78519,16 @@
         <v>106300</v>
       </c>
       <c r="JJ101" s="11">
-        <v>113600</v>
+        <v>113800</v>
+      </c>
+      <c r="JK101" s="11">
+        <v>115100</v>
+      </c>
+      <c r="JL101" s="11">
+        <v>115600</v>
       </c>
     </row>
-    <row r="102" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>135</v>
       </c>
@@ -78773,8 +79337,14 @@
       <c r="JJ102" s="11">
         <v>76000</v>
       </c>
+      <c r="JK102" s="11">
+        <v>76600</v>
+      </c>
+      <c r="JL102" s="11">
+        <v>75800</v>
+      </c>
     </row>
-    <row r="103" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>136</v>
       </c>
@@ -79581,10 +80151,16 @@
         <v>33000</v>
       </c>
       <c r="JJ103" s="11">
+        <v>32900</v>
+      </c>
+      <c r="JK103" s="11">
+        <v>32900</v>
+      </c>
+      <c r="JL103" s="11">
         <v>32800</v>
       </c>
     </row>
-    <row r="104" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>137</v>
       </c>
@@ -80393,8 +80969,14 @@
       <c r="JJ104" s="11">
         <v>13800</v>
       </c>
+      <c r="JK104" s="11">
+        <v>14100</v>
+      </c>
+      <c r="JL104" s="11">
+        <v>13400</v>
+      </c>
     </row>
-    <row r="105" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>138</v>
       </c>
@@ -81201,10 +81783,16 @@
         <v>29400</v>
       </c>
       <c r="JJ105" s="11">
-        <v>29400</v>
+        <v>29300</v>
+      </c>
+      <c r="JK105" s="11">
+        <v>29600</v>
+      </c>
+      <c r="JL105" s="11">
+        <v>29600</v>
       </c>
     </row>
-    <row r="107" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
         <v>237</v>
       </c>
@@ -81217,7 +81805,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="16"/>
     </row>
-    <row r="108" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>16</v>
       </c>
@@ -81230,7 +81818,7 @@
       <c r="H108" s="14"/>
       <c r="I108" s="18"/>
     </row>
-    <row r="109" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>238</v>
       </c>
@@ -81243,7 +81831,7 @@
       <c r="H109" s="14"/>
       <c r="I109" s="18"/>
     </row>
-    <row r="110" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
         <v>239</v>
       </c>
@@ -81256,7 +81844,7 @@
       <c r="H110" s="14"/>
       <c r="I110" s="18"/>
     </row>
-    <row r="111" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>240</v>
       </c>
@@ -81269,7 +81857,7 @@
       <c r="H111" s="14"/>
       <c r="I111" s="18"/>
     </row>
-    <row r="112" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
         <v>241</v>
       </c>
